--- a/mControl_produccion/formatos/1.xlsx
+++ b/mControl_produccion/formatos/1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -19,37 +19,37 @@
     <t>Afiliación</t>
   </si>
   <si>
-    <t>7543520</t>
+    <t>7773224</t>
   </si>
   <si>
     <t>Fecha de Transacción</t>
   </si>
   <si>
-    <t>15/09/2019</t>
+    <t>15/05/2021</t>
   </si>
   <si>
     <t>Hora de Transacción</t>
   </si>
   <si>
-    <t>10:48:13</t>
+    <t>08:23:25</t>
   </si>
   <si>
     <t>Número de Control</t>
   </si>
   <si>
-    <t>201909154411047300036</t>
+    <t>202105152782316541</t>
   </si>
   <si>
     <t>Código de Autorización</t>
   </si>
   <si>
-    <t>005777</t>
+    <t>09777Z</t>
   </si>
   <si>
     <t>Número de Tarjeta</t>
   </si>
   <si>
-    <t>554764******0036</t>
+    <t>517805******6541</t>
   </si>
   <si>
     <t>Tipo de Transacción</t>
@@ -67,13 +67,13 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>389.85</t>
+    <t>1603</t>
   </si>
   <si>
     <t>Referencia</t>
   </si>
   <si>
-    <t>667934674931</t>
+    <t>550902193816</t>
   </si>
   <si>
     <t>Referencia 1</t>
@@ -136,13 +136,13 @@
     <t>Banco Emisor</t>
   </si>
   <si>
-    <t xml:space="preserve">BANORTE   </t>
+    <t>DEBITO/CAM</t>
   </si>
   <si>
     <t>Marca de Tarjeta</t>
   </si>
   <si>
-    <t>MASTERCARD</t>
+    <t>CREDITO/PL</t>
   </si>
   <si>
     <t>Tipo de Tarjeta</t>
@@ -486,13 +486,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:IV8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="28" width="19.5703125" customWidth="1"/>
+    <col min="29" max="256" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
